--- a/Team-Data/2012-13/4-17-2012-13.xlsx
+++ b/Team-Data/2012-13/4-17-2012-13.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -666,16 +733,16 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E2" t="n">
         <v>44</v>
       </c>
       <c r="F2" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G2" t="n">
-        <v>0.537</v>
+        <v>0.543</v>
       </c>
       <c r="H2" t="n">
         <v>48.4</v>
@@ -684,40 +751,40 @@
         <v>37.6</v>
       </c>
       <c r="J2" t="n">
-        <v>81</v>
+        <v>80.90000000000001</v>
       </c>
       <c r="K2" t="n">
-        <v>0.464</v>
+        <v>0.465</v>
       </c>
       <c r="L2" t="n">
-        <v>8.6</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="M2" t="n">
         <v>23.2</v>
       </c>
       <c r="N2" t="n">
-        <v>0.371</v>
+        <v>0.374</v>
       </c>
       <c r="O2" t="n">
         <v>14.1</v>
       </c>
       <c r="P2" t="n">
-        <v>19.7</v>
+        <v>19.8</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.715</v>
+        <v>0.713</v>
       </c>
       <c r="R2" t="n">
         <v>9.199999999999999</v>
       </c>
       <c r="S2" t="n">
-        <v>31.6</v>
+        <v>31.5</v>
       </c>
       <c r="T2" t="n">
-        <v>40.9</v>
+        <v>40.7</v>
       </c>
       <c r="U2" t="n">
-        <v>24.5</v>
+        <v>24.6</v>
       </c>
       <c r="V2" t="n">
         <v>14.9</v>
@@ -735,34 +802,34 @@
         <v>18</v>
       </c>
       <c r="AA2" t="n">
-        <v>18.8</v>
+        <v>18.9</v>
       </c>
       <c r="AB2" t="n">
         <v>98</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="AD2" t="n">
         <v>1</v>
       </c>
       <c r="AE2" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AF2" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AH2" t="n">
         <v>8</v>
       </c>
       <c r="AI2" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AJ2" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AK2" t="n">
         <v>7</v>
@@ -774,7 +841,7 @@
         <v>5</v>
       </c>
       <c r="AN2" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AO2" t="n">
         <v>28</v>
@@ -792,7 +859,7 @@
         <v>11</v>
       </c>
       <c r="AT2" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AU2" t="n">
         <v>2</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>4-17-2012-13</t>
+          <t>2013-04-17</t>
         </is>
       </c>
     </row>
@@ -848,22 +915,22 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E3" t="n">
         <v>41</v>
       </c>
       <c r="F3" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G3" t="n">
-        <v>0.506</v>
+        <v>0.513</v>
       </c>
       <c r="H3" t="n">
         <v>49</v>
       </c>
       <c r="I3" t="n">
-        <v>37</v>
+        <v>37.1</v>
       </c>
       <c r="J3" t="n">
         <v>79.7</v>
@@ -881,13 +948,13 @@
         <v>0.358</v>
       </c>
       <c r="O3" t="n">
-        <v>16.3</v>
+        <v>16.4</v>
       </c>
       <c r="P3" t="n">
-        <v>21</v>
+        <v>21.1</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.776</v>
+        <v>0.777</v>
       </c>
       <c r="R3" t="n">
         <v>8.1</v>
@@ -896,7 +963,7 @@
         <v>31.3</v>
       </c>
       <c r="T3" t="n">
-        <v>39.3</v>
+        <v>39.4</v>
       </c>
       <c r="U3" t="n">
         <v>22.8</v>
@@ -905,7 +972,7 @@
         <v>14.6</v>
       </c>
       <c r="W3" t="n">
-        <v>8.199999999999999</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="X3" t="n">
         <v>4.5</v>
@@ -917,13 +984,13 @@
         <v>21.2</v>
       </c>
       <c r="AA3" t="n">
-        <v>19.4</v>
+        <v>19.5</v>
       </c>
       <c r="AB3" t="n">
-        <v>96.5</v>
+        <v>96.59999999999999</v>
       </c>
       <c r="AC3" t="n">
-        <v>-0.2</v>
+        <v>0.1</v>
       </c>
       <c r="AD3" t="n">
         <v>29</v>
@@ -956,13 +1023,13 @@
         <v>26</v>
       </c>
       <c r="AN3" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AO3" t="n">
         <v>19</v>
       </c>
       <c r="AP3" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AQ3" t="n">
         <v>6</v>
@@ -980,7 +1047,7 @@
         <v>12</v>
       </c>
       <c r="AV3" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AW3" t="n">
         <v>11</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>4-17-2012-13</t>
+          <t>2013-04-17</t>
         </is>
       </c>
     </row>
@@ -1030,34 +1097,34 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E4" t="n">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F4" t="n">
         <v>33</v>
       </c>
       <c r="G4" t="n">
-        <v>0.598</v>
+        <v>0.593</v>
       </c>
       <c r="H4" t="n">
         <v>48.4</v>
       </c>
       <c r="I4" t="n">
-        <v>35.9</v>
+        <v>35.8</v>
       </c>
       <c r="J4" t="n">
         <v>79.8</v>
       </c>
       <c r="K4" t="n">
-        <v>0.45</v>
+        <v>0.449</v>
       </c>
       <c r="L4" t="n">
         <v>7.7</v>
       </c>
       <c r="M4" t="n">
-        <v>21.5</v>
+        <v>21.4</v>
       </c>
       <c r="N4" t="n">
         <v>0.357</v>
@@ -1081,13 +1148,13 @@
         <v>42.8</v>
       </c>
       <c r="U4" t="n">
-        <v>20.3</v>
+        <v>20.2</v>
       </c>
       <c r="V4" t="n">
-        <v>14.7</v>
+        <v>14.6</v>
       </c>
       <c r="W4" t="n">
-        <v>7.3</v>
+        <v>7.2</v>
       </c>
       <c r="X4" t="n">
         <v>4.8</v>
@@ -1096,13 +1163,13 @@
         <v>4.8</v>
       </c>
       <c r="Z4" t="n">
-        <v>18.3</v>
+        <v>18.2</v>
       </c>
       <c r="AA4" t="n">
-        <v>21.4</v>
+        <v>21.3</v>
       </c>
       <c r="AB4" t="n">
-        <v>96.90000000000001</v>
+        <v>96.8</v>
       </c>
       <c r="AC4" t="n">
         <v>1.8</v>
@@ -1111,7 +1178,7 @@
         <v>1</v>
       </c>
       <c r="AE4" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AF4" t="n">
         <v>9</v>
@@ -1123,13 +1190,13 @@
         <v>8</v>
       </c>
       <c r="AI4" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AJ4" t="n">
         <v>27</v>
       </c>
       <c r="AK4" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AL4" t="n">
         <v>9</v>
@@ -1159,19 +1226,19 @@
         <v>10</v>
       </c>
       <c r="AU4" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AV4" t="n">
+        <v>13</v>
+      </c>
+      <c r="AW4" t="n">
+        <v>21</v>
+      </c>
+      <c r="AX4" t="n">
         <v>17</v>
       </c>
-      <c r="AW4" t="n">
-        <v>19</v>
-      </c>
-      <c r="AX4" t="n">
-        <v>18</v>
-      </c>
       <c r="AY4" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AZ4" t="n">
         <v>4</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>4-17-2012-13</t>
+          <t>2013-04-17</t>
         </is>
       </c>
     </row>
@@ -1212,16 +1279,16 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E5" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F5" t="n">
         <v>61</v>
       </c>
       <c r="G5" t="n">
-        <v>0.256</v>
+        <v>0.247</v>
       </c>
       <c r="H5" t="n">
         <v>48.3</v>
@@ -1230,22 +1297,22 @@
         <v>34.4</v>
       </c>
       <c r="J5" t="n">
-        <v>81.09999999999999</v>
+        <v>81.2</v>
       </c>
       <c r="K5" t="n">
-        <v>0.425</v>
+        <v>0.424</v>
       </c>
       <c r="L5" t="n">
         <v>5.7</v>
       </c>
       <c r="M5" t="n">
-        <v>17.1</v>
+        <v>17</v>
       </c>
       <c r="N5" t="n">
-        <v>0.335</v>
+        <v>0.334</v>
       </c>
       <c r="O5" t="n">
-        <v>18.9</v>
+        <v>18.8</v>
       </c>
       <c r="P5" t="n">
         <v>25.1</v>
@@ -1263,31 +1330,31 @@
         <v>40.3</v>
       </c>
       <c r="U5" t="n">
-        <v>19.4</v>
+        <v>19.2</v>
       </c>
       <c r="V5" t="n">
-        <v>14.1</v>
+        <v>14</v>
       </c>
       <c r="W5" t="n">
         <v>7.2</v>
       </c>
       <c r="X5" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="Y5" t="n">
         <v>6.9</v>
       </c>
       <c r="Z5" t="n">
-        <v>19</v>
+        <v>19.1</v>
       </c>
       <c r="AA5" t="n">
         <v>21.3</v>
       </c>
       <c r="AB5" t="n">
-        <v>93.40000000000001</v>
+        <v>93.3</v>
       </c>
       <c r="AC5" t="n">
-        <v>-9.199999999999999</v>
+        <v>-9.4</v>
       </c>
       <c r="AD5" t="n">
         <v>1</v>
@@ -1362,7 +1429,7 @@
         <v>6</v>
       </c>
       <c r="BB5" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="BC5" t="n">
         <v>30</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>4-17-2012-13</t>
+          <t>2013-04-17</t>
         </is>
       </c>
     </row>
@@ -1394,16 +1461,16 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E6" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F6" t="n">
         <v>37</v>
       </c>
       <c r="G6" t="n">
-        <v>0.549</v>
+        <v>0.543</v>
       </c>
       <c r="H6" t="n">
         <v>48.4</v>
@@ -1415,7 +1482,7 @@
         <v>81.7</v>
       </c>
       <c r="K6" t="n">
-        <v>0.437</v>
+        <v>0.436</v>
       </c>
       <c r="L6" t="n">
         <v>5.4</v>
@@ -1424,7 +1491,7 @@
         <v>15.4</v>
       </c>
       <c r="N6" t="n">
-        <v>0.353</v>
+        <v>0.352</v>
       </c>
       <c r="O6" t="n">
         <v>16.4</v>
@@ -1439,10 +1506,10 @@
         <v>12.5</v>
       </c>
       <c r="S6" t="n">
-        <v>30.7</v>
+        <v>30.6</v>
       </c>
       <c r="T6" t="n">
-        <v>43.2</v>
+        <v>43.1</v>
       </c>
       <c r="U6" t="n">
         <v>23</v>
@@ -1463,7 +1530,7 @@
         <v>19.7</v>
       </c>
       <c r="AA6" t="n">
-        <v>19.6</v>
+        <v>19.7</v>
       </c>
       <c r="AB6" t="n">
         <v>93.2</v>
@@ -1475,13 +1542,13 @@
         <v>1</v>
       </c>
       <c r="AE6" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AF6" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AG6" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AH6" t="n">
         <v>13</v>
@@ -1490,13 +1557,13 @@
         <v>27</v>
       </c>
       <c r="AJ6" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AK6" t="n">
         <v>25</v>
       </c>
       <c r="AL6" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AM6" t="n">
         <v>29</v>
@@ -1505,13 +1572,13 @@
         <v>21</v>
       </c>
       <c r="AO6" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AP6" t="n">
         <v>19</v>
       </c>
       <c r="AQ6" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AR6" t="n">
         <v>6</v>
@@ -1520,16 +1587,16 @@
         <v>14</v>
       </c>
       <c r="AT6" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AU6" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AV6" t="n">
         <v>10</v>
       </c>
       <c r="AW6" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AX6" t="n">
         <v>15</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>4-17-2012-13</t>
+          <t>2013-04-17</t>
         </is>
       </c>
     </row>
@@ -1576,16 +1643,16 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E7" t="n">
         <v>24</v>
       </c>
       <c r="F7" t="n">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G7" t="n">
-        <v>0.293</v>
+        <v>0.296</v>
       </c>
       <c r="H7" t="n">
         <v>48.1</v>
@@ -1597,37 +1664,37 @@
         <v>84.2</v>
       </c>
       <c r="K7" t="n">
-        <v>0.434</v>
+        <v>0.433</v>
       </c>
       <c r="L7" t="n">
         <v>6.7</v>
       </c>
       <c r="M7" t="n">
-        <v>19.3</v>
+        <v>19.2</v>
       </c>
       <c r="N7" t="n">
         <v>0.346</v>
       </c>
       <c r="O7" t="n">
-        <v>16.8</v>
+        <v>16.9</v>
       </c>
       <c r="P7" t="n">
         <v>22.3</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.756</v>
+        <v>0.757</v>
       </c>
       <c r="R7" t="n">
-        <v>12.2</v>
+        <v>12.3</v>
       </c>
       <c r="S7" t="n">
-        <v>28.8</v>
+        <v>28.7</v>
       </c>
       <c r="T7" t="n">
-        <v>41</v>
+        <v>41.1</v>
       </c>
       <c r="U7" t="n">
-        <v>20.7</v>
+        <v>20.6</v>
       </c>
       <c r="V7" t="n">
         <v>14</v>
@@ -1639,13 +1706,13 @@
         <v>4.1</v>
       </c>
       <c r="Y7" t="n">
-        <v>6.8</v>
+        <v>6.9</v>
       </c>
       <c r="Z7" t="n">
-        <v>21.2</v>
+        <v>21.1</v>
       </c>
       <c r="AA7" t="n">
-        <v>19.7</v>
+        <v>19.8</v>
       </c>
       <c r="AB7" t="n">
         <v>96.5</v>
@@ -1666,13 +1733,13 @@
         <v>28</v>
       </c>
       <c r="AH7" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AI7" t="n">
         <v>20</v>
       </c>
       <c r="AJ7" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AK7" t="n">
         <v>29</v>
@@ -1690,10 +1757,10 @@
         <v>13</v>
       </c>
       <c r="AP7" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AQ7" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AR7" t="n">
         <v>7</v>
@@ -1711,7 +1778,7 @@
         <v>7</v>
       </c>
       <c r="AW7" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AX7" t="n">
         <v>29</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>4-17-2012-13</t>
+          <t>2013-04-17</t>
         </is>
       </c>
     </row>
@@ -1758,16 +1825,16 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E8" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F8" t="n">
         <v>41</v>
       </c>
       <c r="G8" t="n">
-        <v>0.5</v>
+        <v>0.494</v>
       </c>
       <c r="H8" t="n">
         <v>48.7</v>
@@ -1776,10 +1843,10 @@
         <v>38.8</v>
       </c>
       <c r="J8" t="n">
-        <v>84</v>
+        <v>84.09999999999999</v>
       </c>
       <c r="K8" t="n">
-        <v>0.462</v>
+        <v>0.461</v>
       </c>
       <c r="L8" t="n">
         <v>7.4</v>
@@ -1791,10 +1858,10 @@
         <v>0.372</v>
       </c>
       <c r="O8" t="n">
-        <v>16.1</v>
+        <v>16.2</v>
       </c>
       <c r="P8" t="n">
-        <v>20.4</v>
+        <v>20.5</v>
       </c>
       <c r="Q8" t="n">
         <v>0.793</v>
@@ -1806,7 +1873,7 @@
         <v>32.6</v>
       </c>
       <c r="T8" t="n">
-        <v>41.9</v>
+        <v>42</v>
       </c>
       <c r="U8" t="n">
         <v>23.2</v>
@@ -1821,7 +1888,7 @@
         <v>5.5</v>
       </c>
       <c r="Y8" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="Z8" t="n">
         <v>20.7</v>
@@ -1830,16 +1897,16 @@
         <v>18.9</v>
       </c>
       <c r="AB8" t="n">
-        <v>101.1</v>
+        <v>101.2</v>
       </c>
       <c r="AC8" t="n">
-        <v>-0.6</v>
+        <v>-0.8</v>
       </c>
       <c r="AD8" t="n">
         <v>1</v>
       </c>
       <c r="AE8" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AF8" t="n">
         <v>17</v>
@@ -1854,19 +1921,19 @@
         <v>3</v>
       </c>
       <c r="AJ8" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AK8" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AL8" t="n">
         <v>12</v>
       </c>
       <c r="AM8" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AN8" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AO8" t="n">
         <v>20</v>
@@ -1884,7 +1951,7 @@
         <v>6</v>
       </c>
       <c r="AT8" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AU8" t="n">
         <v>5</v>
@@ -1893,7 +1960,7 @@
         <v>5</v>
       </c>
       <c r="AW8" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AX8" t="n">
         <v>8</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>4-17-2012-13</t>
+          <t>2013-04-17</t>
         </is>
       </c>
     </row>
@@ -1940,25 +2007,25 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E9" t="n">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F9" t="n">
         <v>25</v>
       </c>
       <c r="G9" t="n">
-        <v>0.695</v>
+        <v>0.6909999999999999</v>
       </c>
       <c r="H9" t="n">
-        <v>48.5</v>
+        <v>48.6</v>
       </c>
       <c r="I9" t="n">
-        <v>40.7</v>
+        <v>40.6</v>
       </c>
       <c r="J9" t="n">
-        <v>85.2</v>
+        <v>85.09999999999999</v>
       </c>
       <c r="K9" t="n">
         <v>0.478</v>
@@ -1970,25 +2037,25 @@
         <v>18.5</v>
       </c>
       <c r="N9" t="n">
-        <v>0.343</v>
+        <v>0.344</v>
       </c>
       <c r="O9" t="n">
         <v>18.4</v>
       </c>
       <c r="P9" t="n">
-        <v>26.2</v>
+        <v>26.3</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.701</v>
+        <v>0.7</v>
       </c>
       <c r="R9" t="n">
         <v>13.3</v>
       </c>
       <c r="S9" t="n">
-        <v>31.7</v>
+        <v>31.6</v>
       </c>
       <c r="T9" t="n">
-        <v>45</v>
+        <v>44.9</v>
       </c>
       <c r="U9" t="n">
         <v>24.4</v>
@@ -2006,16 +2073,16 @@
         <v>6.8</v>
       </c>
       <c r="Z9" t="n">
-        <v>20.5</v>
+        <v>20.6</v>
       </c>
       <c r="AA9" t="n">
-        <v>21.6</v>
+        <v>21.7</v>
       </c>
       <c r="AB9" t="n">
-        <v>106.1</v>
+        <v>106</v>
       </c>
       <c r="AC9" t="n">
-        <v>5.1</v>
+        <v>4.9</v>
       </c>
       <c r="AD9" t="n">
         <v>1</v>
@@ -2090,7 +2157,7 @@
         <v>4</v>
       </c>
       <c r="BB9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BC9" t="n">
         <v>5</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>4-17-2012-13</t>
+          <t>2013-04-17</t>
         </is>
       </c>
     </row>
@@ -2122,16 +2189,16 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E10" t="n">
         <v>29</v>
       </c>
       <c r="F10" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G10" t="n">
-        <v>0.354</v>
+        <v>0.358</v>
       </c>
       <c r="H10" t="n">
         <v>48.3</v>
@@ -2143,7 +2210,7 @@
         <v>81</v>
       </c>
       <c r="K10" t="n">
-        <v>0.449</v>
+        <v>0.448</v>
       </c>
       <c r="L10" t="n">
         <v>6.3</v>
@@ -2152,16 +2219,16 @@
         <v>17.6</v>
       </c>
       <c r="N10" t="n">
-        <v>0.356</v>
+        <v>0.359</v>
       </c>
       <c r="O10" t="n">
-        <v>15.9</v>
+        <v>15.8</v>
       </c>
       <c r="P10" t="n">
-        <v>22.8</v>
+        <v>22.7</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.699</v>
+        <v>0.698</v>
       </c>
       <c r="R10" t="n">
         <v>12.1</v>
@@ -2170,16 +2237,16 @@
         <v>30</v>
       </c>
       <c r="T10" t="n">
-        <v>42.1</v>
+        <v>42.2</v>
       </c>
       <c r="U10" t="n">
-        <v>21.2</v>
+        <v>21.3</v>
       </c>
       <c r="V10" t="n">
-        <v>15.1</v>
+        <v>15</v>
       </c>
       <c r="W10" t="n">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="X10" t="n">
         <v>4.9</v>
@@ -2188,13 +2255,13 @@
         <v>5.8</v>
       </c>
       <c r="Z10" t="n">
+        <v>19.7</v>
+      </c>
+      <c r="AA10" t="n">
         <v>19.8</v>
       </c>
-      <c r="AA10" t="n">
-        <v>19.9</v>
-      </c>
       <c r="AB10" t="n">
-        <v>94.90000000000001</v>
+        <v>94.8</v>
       </c>
       <c r="AC10" t="n">
         <v>-4</v>
@@ -2218,25 +2285,25 @@
         <v>21</v>
       </c>
       <c r="AJ10" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AK10" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AL10" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AM10" t="n">
         <v>24</v>
       </c>
       <c r="AN10" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="AO10" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AP10" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AQ10" t="n">
         <v>29</v>
@@ -2254,10 +2321,10 @@
         <v>22</v>
       </c>
       <c r="AV10" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="AW10" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AX10" t="n">
         <v>16</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>4-17-2012-13</t>
+          <t>2013-04-17</t>
         </is>
       </c>
     </row>
@@ -2304,25 +2371,25 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E11" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F11" t="n">
         <v>35</v>
       </c>
       <c r="G11" t="n">
-        <v>0.573</v>
+        <v>0.5679999999999999</v>
       </c>
       <c r="H11" t="n">
         <v>48.3</v>
       </c>
       <c r="I11" t="n">
-        <v>38.2</v>
+        <v>38.1</v>
       </c>
       <c r="J11" t="n">
-        <v>83.40000000000001</v>
+        <v>83.3</v>
       </c>
       <c r="K11" t="n">
         <v>0.458</v>
@@ -2337,10 +2404,10 @@
         <v>0.403</v>
       </c>
       <c r="O11" t="n">
-        <v>16.8</v>
+        <v>16.9</v>
       </c>
       <c r="P11" t="n">
-        <v>21.3</v>
+        <v>21.4</v>
       </c>
       <c r="Q11" t="n">
         <v>0.79</v>
@@ -2349,10 +2416,10 @@
         <v>10.8</v>
       </c>
       <c r="S11" t="n">
-        <v>34.2</v>
+        <v>34.1</v>
       </c>
       <c r="T11" t="n">
-        <v>45</v>
+        <v>44.9</v>
       </c>
       <c r="U11" t="n">
         <v>22.5</v>
@@ -2379,7 +2446,7 @@
         <v>101.2</v>
       </c>
       <c r="AC11" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="AD11" t="n">
         <v>1</v>
@@ -2397,7 +2464,7 @@
         <v>17</v>
       </c>
       <c r="AI11" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AJ11" t="n">
         <v>9</v>
@@ -2409,19 +2476,19 @@
         <v>8</v>
       </c>
       <c r="AM11" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AN11" t="n">
         <v>1</v>
       </c>
       <c r="AO11" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AP11" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AQ11" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AR11" t="n">
         <v>22</v>
@@ -2436,10 +2503,10 @@
         <v>15</v>
       </c>
       <c r="AV11" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AW11" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AX11" t="n">
         <v>27</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>4-17-2012-13</t>
+          <t>2013-04-17</t>
         </is>
       </c>
     </row>
@@ -2486,16 +2553,16 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E12" t="n">
         <v>45</v>
       </c>
       <c r="F12" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G12" t="n">
-        <v>0.549</v>
+        <v>0.556</v>
       </c>
       <c r="H12" t="n">
         <v>48.2</v>
@@ -2513,10 +2580,10 @@
         <v>10.6</v>
       </c>
       <c r="M12" t="n">
-        <v>28.9</v>
+        <v>28.8</v>
       </c>
       <c r="N12" t="n">
-        <v>0.366</v>
+        <v>0.368</v>
       </c>
       <c r="O12" t="n">
         <v>19.2</v>
@@ -2540,7 +2607,7 @@
         <v>23.2</v>
       </c>
       <c r="V12" t="n">
-        <v>16.4</v>
+        <v>16.5</v>
       </c>
       <c r="W12" t="n">
         <v>8.300000000000001</v>
@@ -2552,16 +2619,16 @@
         <v>6.1</v>
       </c>
       <c r="Z12" t="n">
-        <v>20.3</v>
+        <v>20.2</v>
       </c>
       <c r="AA12" t="n">
-        <v>20.4</v>
+        <v>20.5</v>
       </c>
       <c r="AB12" t="n">
-        <v>106</v>
+        <v>106.1</v>
       </c>
       <c r="AC12" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="AD12" t="n">
         <v>1</v>
@@ -2576,16 +2643,16 @@
         <v>11</v>
       </c>
       <c r="AH12" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AI12" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AJ12" t="n">
         <v>10</v>
       </c>
       <c r="AK12" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AL12" t="n">
         <v>2</v>
@@ -2594,7 +2661,7 @@
         <v>2</v>
       </c>
       <c r="AN12" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AO12" t="n">
         <v>3</v>
@@ -2609,7 +2676,7 @@
         <v>17</v>
       </c>
       <c r="AS12" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AT12" t="n">
         <v>7</v>
@@ -2624,19 +2691,19 @@
         <v>9</v>
       </c>
       <c r="AX12" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AY12" t="n">
         <v>26</v>
       </c>
       <c r="AZ12" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="BA12" t="n">
         <v>9</v>
       </c>
       <c r="BB12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BC12" t="n">
         <v>9</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>4-17-2012-13</t>
+          <t>2013-04-17</t>
         </is>
       </c>
     </row>
@@ -2668,16 +2735,16 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E13" t="n">
         <v>49</v>
       </c>
       <c r="F13" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G13" t="n">
-        <v>0.605</v>
+        <v>0.613</v>
       </c>
       <c r="H13" t="n">
         <v>48.4</v>
@@ -2698,16 +2765,16 @@
         <v>19.7</v>
       </c>
       <c r="N13" t="n">
-        <v>0.347</v>
+        <v>0.349</v>
       </c>
       <c r="O13" t="n">
-        <v>17.6</v>
+        <v>17.7</v>
       </c>
       <c r="P13" t="n">
         <v>23.6</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.746</v>
+        <v>0.748</v>
       </c>
       <c r="R13" t="n">
         <v>12.9</v>
@@ -2719,7 +2786,7 @@
         <v>45.9</v>
       </c>
       <c r="U13" t="n">
-        <v>20.3</v>
+        <v>20.4</v>
       </c>
       <c r="V13" t="n">
         <v>15.1</v>
@@ -2728,13 +2795,13 @@
         <v>7.2</v>
       </c>
       <c r="X13" t="n">
-        <v>6.3</v>
+        <v>6.4</v>
       </c>
       <c r="Y13" t="n">
         <v>5.7</v>
       </c>
       <c r="Z13" t="n">
-        <v>20</v>
+        <v>20.1</v>
       </c>
       <c r="AA13" t="n">
         <v>21.9</v>
@@ -2743,7 +2810,7 @@
         <v>94.7</v>
       </c>
       <c r="AC13" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="AD13" t="n">
         <v>29</v>
@@ -2764,7 +2831,7 @@
         <v>29</v>
       </c>
       <c r="AJ13" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AK13" t="n">
         <v>26</v>
@@ -2788,7 +2855,7 @@
         <v>19</v>
       </c>
       <c r="AR13" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AS13" t="n">
         <v>5</v>
@@ -2797,10 +2864,10 @@
         <v>1</v>
       </c>
       <c r="AU13" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AV13" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AW13" t="n">
         <v>24</v>
@@ -2821,7 +2888,7 @@
         <v>23</v>
       </c>
       <c r="BC13" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BD13" t="n">
         <v>10</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>4-17-2012-13</t>
+          <t>2013-04-17</t>
         </is>
       </c>
     </row>
@@ -2850,16 +2917,16 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E14" t="n">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F14" t="n">
         <v>26</v>
       </c>
       <c r="G14" t="n">
-        <v>0.6830000000000001</v>
+        <v>0.679</v>
       </c>
       <c r="H14" t="n">
         <v>48.1</v>
@@ -2868,7 +2935,7 @@
         <v>38.5</v>
       </c>
       <c r="J14" t="n">
-        <v>80.59999999999999</v>
+        <v>80.5</v>
       </c>
       <c r="K14" t="n">
         <v>0.478</v>
@@ -2877,16 +2944,16 @@
         <v>7.6</v>
       </c>
       <c r="M14" t="n">
-        <v>21.4</v>
+        <v>21.3</v>
       </c>
       <c r="N14" t="n">
-        <v>0.358</v>
+        <v>0.356</v>
       </c>
       <c r="O14" t="n">
         <v>16.4</v>
       </c>
       <c r="P14" t="n">
-        <v>23</v>
+        <v>23.1</v>
       </c>
       <c r="Q14" t="n">
         <v>0.711</v>
@@ -2895,7 +2962,7 @@
         <v>11.4</v>
       </c>
       <c r="S14" t="n">
-        <v>30.2</v>
+        <v>30.1</v>
       </c>
       <c r="T14" t="n">
         <v>41.6</v>
@@ -2910,7 +2977,7 @@
         <v>9.6</v>
       </c>
       <c r="X14" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="Y14" t="n">
         <v>4.1</v>
@@ -2922,7 +2989,7 @@
         <v>20.9</v>
       </c>
       <c r="AB14" t="n">
-        <v>101.1</v>
+        <v>101</v>
       </c>
       <c r="AC14" t="n">
         <v>6.5</v>
@@ -2940,13 +3007,13 @@
         <v>5</v>
       </c>
       <c r="AH14" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AI14" t="n">
         <v>4</v>
       </c>
       <c r="AJ14" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AK14" t="n">
         <v>4</v>
@@ -2958,10 +3025,10 @@
         <v>9</v>
       </c>
       <c r="AN14" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AO14" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AP14" t="n">
         <v>9</v>
@@ -2970,19 +3037,19 @@
         <v>27</v>
       </c>
       <c r="AR14" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AS14" t="n">
         <v>17</v>
       </c>
       <c r="AT14" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AU14" t="n">
         <v>4</v>
       </c>
       <c r="AV14" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AW14" t="n">
         <v>1</v>
@@ -3003,7 +3070,7 @@
         <v>9</v>
       </c>
       <c r="BC14" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BD14" t="n">
         <v>10</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>4-17-2012-13</t>
+          <t>2013-04-17</t>
         </is>
       </c>
     </row>
@@ -3032,58 +3099,58 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E15" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F15" t="n">
         <v>37</v>
       </c>
       <c r="G15" t="n">
-        <v>0.549</v>
+        <v>0.543</v>
       </c>
       <c r="H15" t="n">
-        <v>48.2</v>
+        <v>48.1</v>
       </c>
       <c r="I15" t="n">
         <v>37.1</v>
       </c>
       <c r="J15" t="n">
-        <v>81</v>
+        <v>80.90000000000001</v>
       </c>
       <c r="K15" t="n">
-        <v>0.458</v>
+        <v>0.459</v>
       </c>
       <c r="L15" t="n">
         <v>8.699999999999999</v>
       </c>
       <c r="M15" t="n">
-        <v>24.6</v>
+        <v>24.5</v>
       </c>
       <c r="N15" t="n">
-        <v>0.355</v>
+        <v>0.356</v>
       </c>
       <c r="O15" t="n">
         <v>19.3</v>
       </c>
       <c r="P15" t="n">
-        <v>27.9</v>
+        <v>27.8</v>
       </c>
       <c r="Q15" t="n">
         <v>0.6919999999999999</v>
       </c>
       <c r="R15" t="n">
-        <v>11.5</v>
+        <v>11.4</v>
       </c>
       <c r="S15" t="n">
-        <v>33.3</v>
+        <v>33.2</v>
       </c>
       <c r="T15" t="n">
-        <v>44.8</v>
+        <v>44.7</v>
       </c>
       <c r="U15" t="n">
-        <v>22.2</v>
+        <v>22.1</v>
       </c>
       <c r="V15" t="n">
         <v>15</v>
@@ -3101,40 +3168,40 @@
         <v>17.9</v>
       </c>
       <c r="AA15" t="n">
-        <v>23.1</v>
+        <v>23</v>
       </c>
       <c r="AB15" t="n">
         <v>102.2</v>
       </c>
       <c r="AC15" t="n">
-        <v>1.2</v>
+        <v>1.1</v>
       </c>
       <c r="AD15" t="n">
         <v>1</v>
       </c>
       <c r="AE15" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AF15" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AG15" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AH15" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AI15" t="n">
         <v>16</v>
       </c>
       <c r="AJ15" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AK15" t="n">
         <v>10</v>
       </c>
       <c r="AL15" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AM15" t="n">
         <v>3</v>
@@ -3152,10 +3219,10 @@
         <v>30</v>
       </c>
       <c r="AR15" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AS15" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AT15" t="n">
         <v>4</v>
@@ -3164,7 +3231,7 @@
         <v>17</v>
       </c>
       <c r="AV15" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AW15" t="n">
         <v>25</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>4-17-2012-13</t>
+          <t>2013-04-17</t>
         </is>
       </c>
     </row>
@@ -3214,25 +3281,25 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E16" t="n">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F16" t="n">
         <v>26</v>
       </c>
       <c r="G16" t="n">
-        <v>0.6830000000000001</v>
+        <v>0.679</v>
       </c>
       <c r="H16" t="n">
         <v>48.3</v>
       </c>
       <c r="I16" t="n">
-        <v>36.1</v>
+        <v>36.2</v>
       </c>
       <c r="J16" t="n">
-        <v>81.5</v>
+        <v>81.40000000000001</v>
       </c>
       <c r="K16" t="n">
         <v>0.444</v>
@@ -3244,7 +3311,7 @@
         <v>13.5</v>
       </c>
       <c r="N16" t="n">
-        <v>0.345</v>
+        <v>0.346</v>
       </c>
       <c r="O16" t="n">
         <v>16.5</v>
@@ -3256,13 +3323,13 @@
         <v>0.773</v>
       </c>
       <c r="R16" t="n">
-        <v>12.9</v>
+        <v>12.8</v>
       </c>
       <c r="S16" t="n">
-        <v>29.8</v>
+        <v>29.7</v>
       </c>
       <c r="T16" t="n">
-        <v>42.7</v>
+        <v>42.6</v>
       </c>
       <c r="U16" t="n">
         <v>20.9</v>
@@ -3283,13 +3350,13 @@
         <v>20.2</v>
       </c>
       <c r="AA16" t="n">
-        <v>20</v>
+        <v>20.1</v>
       </c>
       <c r="AB16" t="n">
-        <v>93.40000000000001</v>
+        <v>93.5</v>
       </c>
       <c r="AC16" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="AD16" t="n">
         <v>1</v>
@@ -3310,7 +3377,7 @@
         <v>23</v>
       </c>
       <c r="AJ16" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AK16" t="n">
         <v>21</v>
@@ -3328,19 +3395,19 @@
         <v>16</v>
       </c>
       <c r="AP16" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AQ16" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AR16" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AS16" t="n">
         <v>24</v>
       </c>
       <c r="AT16" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AU16" t="n">
         <v>24</v>
@@ -3352,7 +3419,7 @@
         <v>4</v>
       </c>
       <c r="AX16" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AY16" t="n">
         <v>19</v>
@@ -3364,10 +3431,10 @@
         <v>13</v>
       </c>
       <c r="BB16" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="BC16" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BD16" t="n">
         <v>10</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>4-17-2012-13</t>
+          <t>2013-04-17</t>
         </is>
       </c>
     </row>
@@ -3396,67 +3463,67 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E17" t="n">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F17" t="n">
         <v>16</v>
       </c>
       <c r="G17" t="n">
-        <v>0.805</v>
+        <v>0.802</v>
       </c>
       <c r="H17" t="n">
         <v>48.5</v>
       </c>
       <c r="I17" t="n">
-        <v>38.4</v>
+        <v>38.3</v>
       </c>
       <c r="J17" t="n">
         <v>77.40000000000001</v>
       </c>
       <c r="K17" t="n">
-        <v>0.496</v>
+        <v>0.495</v>
       </c>
       <c r="L17" t="n">
         <v>8.699999999999999</v>
       </c>
       <c r="M17" t="n">
-        <v>22.1</v>
+        <v>22</v>
       </c>
       <c r="N17" t="n">
         <v>0.396</v>
       </c>
       <c r="O17" t="n">
-        <v>17.4</v>
+        <v>17.5</v>
       </c>
       <c r="P17" t="n">
-        <v>23</v>
+        <v>23.1</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.754</v>
+        <v>0.757</v>
       </c>
       <c r="R17" t="n">
-        <v>8.199999999999999</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="S17" t="n">
         <v>30.4</v>
       </c>
       <c r="T17" t="n">
-        <v>38.6</v>
+        <v>38.7</v>
       </c>
       <c r="U17" t="n">
         <v>23</v>
       </c>
       <c r="V17" t="n">
-        <v>13.9</v>
+        <v>14</v>
       </c>
       <c r="W17" t="n">
         <v>8.699999999999999</v>
       </c>
       <c r="X17" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="Y17" t="n">
         <v>3.2</v>
@@ -3471,7 +3538,7 @@
         <v>102.9</v>
       </c>
       <c r="AC17" t="n">
-        <v>7.9</v>
+        <v>7.8</v>
       </c>
       <c r="AD17" t="n">
         <v>1</v>
@@ -3513,19 +3580,19 @@
         <v>10</v>
       </c>
       <c r="AQ17" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AR17" t="n">
         <v>28</v>
       </c>
       <c r="AS17" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AT17" t="n">
         <v>30</v>
       </c>
       <c r="AU17" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AV17" t="n">
         <v>4</v>
@@ -3534,7 +3601,7 @@
         <v>3</v>
       </c>
       <c r="AX17" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AY17" t="n">
         <v>1</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>4-17-2012-13</t>
+          <t>2013-04-17</t>
         </is>
       </c>
     </row>
@@ -3578,22 +3645,22 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E18" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F18" t="n">
         <v>44</v>
       </c>
       <c r="G18" t="n">
-        <v>0.463</v>
+        <v>0.457</v>
       </c>
       <c r="H18" t="n">
         <v>48.4</v>
       </c>
       <c r="I18" t="n">
-        <v>38.1</v>
+        <v>38.2</v>
       </c>
       <c r="J18" t="n">
         <v>87.8</v>
@@ -3605,7 +3672,7 @@
         <v>7.3</v>
       </c>
       <c r="M18" t="n">
-        <v>20.4</v>
+        <v>20.3</v>
       </c>
       <c r="N18" t="n">
         <v>0.36</v>
@@ -3614,7 +3681,7 @@
         <v>15.3</v>
       </c>
       <c r="P18" t="n">
-        <v>20.7</v>
+        <v>20.8</v>
       </c>
       <c r="Q18" t="n">
         <v>0.736</v>
@@ -3626,7 +3693,7 @@
         <v>30.9</v>
       </c>
       <c r="T18" t="n">
-        <v>44</v>
+        <v>43.9</v>
       </c>
       <c r="U18" t="n">
         <v>22.9</v>
@@ -3638,7 +3705,7 @@
         <v>8.4</v>
       </c>
       <c r="X18" t="n">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="Y18" t="n">
         <v>4.4</v>
@@ -3647,13 +3714,13 @@
         <v>19</v>
       </c>
       <c r="AA18" t="n">
-        <v>19.1</v>
+        <v>19.2</v>
       </c>
       <c r="AB18" t="n">
         <v>98.90000000000001</v>
       </c>
       <c r="AC18" t="n">
-        <v>-1.5</v>
+        <v>-1.6</v>
       </c>
       <c r="AD18" t="n">
         <v>1</v>
@@ -3671,7 +3738,7 @@
         <v>13</v>
       </c>
       <c r="AI18" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AJ18" t="n">
         <v>1</v>
@@ -3680,13 +3747,13 @@
         <v>28</v>
       </c>
       <c r="AL18" t="n">
+        <v>14</v>
+      </c>
+      <c r="AM18" t="n">
+        <v>12</v>
+      </c>
+      <c r="AN18" t="n">
         <v>13</v>
-      </c>
-      <c r="AM18" t="n">
-        <v>11</v>
-      </c>
-      <c r="AN18" t="n">
-        <v>14</v>
       </c>
       <c r="AO18" t="n">
         <v>26</v>
@@ -3725,13 +3792,13 @@
         <v>9</v>
       </c>
       <c r="BA18" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="BB18" t="n">
         <v>12</v>
       </c>
       <c r="BC18" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="BD18" t="n">
         <v>10</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>4-17-2012-13</t>
+          <t>2013-04-17</t>
         </is>
       </c>
     </row>
@@ -3760,43 +3827,43 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E19" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F19" t="n">
         <v>51</v>
       </c>
       <c r="G19" t="n">
-        <v>0.378</v>
+        <v>0.37</v>
       </c>
       <c r="H19" t="n">
         <v>48.1</v>
       </c>
       <c r="I19" t="n">
-        <v>35.9</v>
+        <v>35.8</v>
       </c>
       <c r="J19" t="n">
-        <v>81.7</v>
+        <v>81.59999999999999</v>
       </c>
       <c r="K19" t="n">
         <v>0.439</v>
       </c>
       <c r="L19" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="M19" t="n">
-        <v>18</v>
+        <v>17.9</v>
       </c>
       <c r="N19" t="n">
-        <v>0.305</v>
+        <v>0.303</v>
       </c>
       <c r="O19" t="n">
-        <v>18.5</v>
+        <v>18.6</v>
       </c>
       <c r="P19" t="n">
-        <v>24.9</v>
+        <v>25</v>
       </c>
       <c r="Q19" t="n">
         <v>0.742</v>
@@ -3805,13 +3872,13 @@
         <v>11.9</v>
       </c>
       <c r="S19" t="n">
-        <v>30.2</v>
+        <v>30.1</v>
       </c>
       <c r="T19" t="n">
         <v>42</v>
       </c>
       <c r="U19" t="n">
-        <v>22.4</v>
+        <v>22.3</v>
       </c>
       <c r="V19" t="n">
         <v>14.8</v>
@@ -3820,7 +3887,7 @@
         <v>8.5</v>
       </c>
       <c r="X19" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="Y19" t="n">
         <v>5.9</v>
@@ -3832,10 +3899,10 @@
         <v>22.5</v>
       </c>
       <c r="AB19" t="n">
-        <v>95.7</v>
+        <v>95.59999999999999</v>
       </c>
       <c r="AC19" t="n">
-        <v>-2.4</v>
+        <v>-2.6</v>
       </c>
       <c r="AD19" t="n">
         <v>1</v>
@@ -3850,22 +3917,22 @@
         <v>22</v>
       </c>
       <c r="AH19" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AI19" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AJ19" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AK19" t="n">
         <v>24</v>
       </c>
       <c r="AL19" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AM19" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AN19" t="n">
         <v>30</v>
@@ -3880,7 +3947,7 @@
         <v>21</v>
       </c>
       <c r="AR19" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AS19" t="n">
         <v>19</v>
@@ -3895,7 +3962,7 @@
         <v>20</v>
       </c>
       <c r="AW19" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AX19" t="n">
         <v>19</v>
@@ -3913,7 +3980,7 @@
         <v>20</v>
       </c>
       <c r="BC19" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BD19" t="n">
         <v>10</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>4-17-2012-13</t>
+          <t>2013-04-17</t>
         </is>
       </c>
     </row>
@@ -3942,64 +4009,64 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E20" t="n">
         <v>27</v>
       </c>
       <c r="F20" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G20" t="n">
-        <v>0.329</v>
+        <v>0.333</v>
       </c>
       <c r="H20" t="n">
         <v>48.2</v>
       </c>
       <c r="I20" t="n">
-        <v>36</v>
+        <v>36.1</v>
       </c>
       <c r="J20" t="n">
-        <v>80.40000000000001</v>
+        <v>80.3</v>
       </c>
       <c r="K20" t="n">
-        <v>0.448</v>
+        <v>0.45</v>
       </c>
       <c r="L20" t="n">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="M20" t="n">
-        <v>18</v>
+        <v>18.1</v>
       </c>
       <c r="N20" t="n">
         <v>0.363</v>
       </c>
       <c r="O20" t="n">
-        <v>15.5</v>
+        <v>15.4</v>
       </c>
       <c r="P20" t="n">
-        <v>20</v>
+        <v>19.9</v>
       </c>
       <c r="Q20" t="n">
         <v>0.776</v>
       </c>
       <c r="R20" t="n">
-        <v>12</v>
+        <v>11.9</v>
       </c>
       <c r="S20" t="n">
-        <v>29.6</v>
+        <v>29.5</v>
       </c>
       <c r="T20" t="n">
-        <v>41.6</v>
+        <v>41.4</v>
       </c>
       <c r="U20" t="n">
-        <v>21</v>
+        <v>21.1</v>
       </c>
       <c r="V20" t="n">
         <v>14.5</v>
       </c>
       <c r="W20" t="n">
-        <v>6.3</v>
+        <v>6.4</v>
       </c>
       <c r="X20" t="n">
         <v>5.4</v>
@@ -4014,10 +4081,10 @@
         <v>18.7</v>
       </c>
       <c r="AB20" t="n">
-        <v>94.09999999999999</v>
+        <v>94.2</v>
       </c>
       <c r="AC20" t="n">
-        <v>-3.9</v>
+        <v>-3.8</v>
       </c>
       <c r="AD20" t="n">
         <v>1</v>
@@ -4041,16 +4108,16 @@
         <v>26</v>
       </c>
       <c r="AK20" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AL20" t="n">
         <v>19</v>
       </c>
       <c r="AM20" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AN20" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AO20" t="n">
         <v>25</v>
@@ -4059,28 +4126,28 @@
         <v>26</v>
       </c>
       <c r="AQ20" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AR20" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AS20" t="n">
         <v>26</v>
       </c>
       <c r="AT20" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AU20" t="n">
         <v>23</v>
       </c>
       <c r="AV20" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AW20" t="n">
         <v>30</v>
       </c>
       <c r="AX20" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AY20" t="n">
         <v>25</v>
@@ -4092,7 +4159,7 @@
         <v>27</v>
       </c>
       <c r="BB20" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="BC20" t="n">
         <v>24</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>4-17-2012-13</t>
+          <t>2013-04-17</t>
         </is>
       </c>
     </row>
@@ -4124,16 +4191,16 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E21" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F21" t="n">
         <v>28</v>
       </c>
       <c r="G21" t="n">
-        <v>0.659</v>
+        <v>0.654</v>
       </c>
       <c r="H21" t="n">
         <v>48.1</v>
@@ -4142,7 +4209,7 @@
         <v>36.5</v>
       </c>
       <c r="J21" t="n">
-        <v>81.59999999999999</v>
+        <v>81.5</v>
       </c>
       <c r="K21" t="n">
         <v>0.448</v>
@@ -4151,31 +4218,31 @@
         <v>10.9</v>
       </c>
       <c r="M21" t="n">
-        <v>28.9</v>
+        <v>29</v>
       </c>
       <c r="N21" t="n">
         <v>0.376</v>
       </c>
       <c r="O21" t="n">
-        <v>16</v>
+        <v>16.1</v>
       </c>
       <c r="P21" t="n">
         <v>21.1</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.759</v>
+        <v>0.76</v>
       </c>
       <c r="R21" t="n">
-        <v>10.9</v>
+        <v>10.8</v>
       </c>
       <c r="S21" t="n">
         <v>29.7</v>
       </c>
       <c r="T21" t="n">
-        <v>40.6</v>
+        <v>40.4</v>
       </c>
       <c r="U21" t="n">
-        <v>19.3</v>
+        <v>19.2</v>
       </c>
       <c r="V21" t="n">
         <v>12</v>
@@ -4190,10 +4257,10 @@
         <v>4</v>
       </c>
       <c r="Z21" t="n">
-        <v>20.1</v>
+        <v>20.2</v>
       </c>
       <c r="AA21" t="n">
-        <v>19.2</v>
+        <v>19.3</v>
       </c>
       <c r="AB21" t="n">
         <v>100</v>
@@ -4214,16 +4281,16 @@
         <v>7</v>
       </c>
       <c r="AH21" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AI21" t="n">
         <v>19</v>
       </c>
       <c r="AJ21" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AK21" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AL21" t="n">
         <v>1</v>
@@ -4232,7 +4299,7 @@
         <v>1</v>
       </c>
       <c r="AN21" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AO21" t="n">
         <v>21</v>
@@ -4241,10 +4308,10 @@
         <v>20</v>
       </c>
       <c r="AQ21" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AR21" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AS21" t="n">
         <v>25</v>
@@ -4259,7 +4326,7 @@
         <v>1</v>
       </c>
       <c r="AW21" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AX21" t="n">
         <v>30</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>4-17-2012-13</t>
+          <t>2013-04-17</t>
         </is>
       </c>
     </row>
@@ -4306,16 +4373,16 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E22" t="n">
         <v>60</v>
       </c>
       <c r="F22" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G22" t="n">
-        <v>0.732</v>
+        <v>0.741</v>
       </c>
       <c r="H22" t="n">
         <v>48.4</v>
@@ -4324,25 +4391,25 @@
         <v>38.1</v>
       </c>
       <c r="J22" t="n">
-        <v>79.3</v>
+        <v>79.2</v>
       </c>
       <c r="K22" t="n">
-        <v>0.481</v>
+        <v>0.482</v>
       </c>
       <c r="L22" t="n">
         <v>7.3</v>
       </c>
       <c r="M22" t="n">
-        <v>19.4</v>
+        <v>19.3</v>
       </c>
       <c r="N22" t="n">
-        <v>0.377</v>
+        <v>0.38</v>
       </c>
       <c r="O22" t="n">
-        <v>22.2</v>
+        <v>22.3</v>
       </c>
       <c r="P22" t="n">
-        <v>26.8</v>
+        <v>26.9</v>
       </c>
       <c r="Q22" t="n">
         <v>0.828</v>
@@ -4351,7 +4418,7 @@
         <v>10.4</v>
       </c>
       <c r="S22" t="n">
-        <v>33.2</v>
+        <v>33.3</v>
       </c>
       <c r="T22" t="n">
         <v>43.6</v>
@@ -4360,13 +4427,13 @@
         <v>21.4</v>
       </c>
       <c r="V22" t="n">
-        <v>15.3</v>
+        <v>15.4</v>
       </c>
       <c r="W22" t="n">
         <v>8.300000000000001</v>
       </c>
       <c r="X22" t="n">
-        <v>7.6</v>
+        <v>7.7</v>
       </c>
       <c r="Y22" t="n">
         <v>3.9</v>
@@ -4375,13 +4442,13 @@
         <v>20.2</v>
       </c>
       <c r="AA22" t="n">
-        <v>20.7</v>
+        <v>20.8</v>
       </c>
       <c r="AB22" t="n">
-        <v>105.7</v>
+        <v>105.9</v>
       </c>
       <c r="AC22" t="n">
-        <v>9.199999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="AD22" t="n">
         <v>1</v>
@@ -4408,7 +4475,7 @@
         <v>3</v>
       </c>
       <c r="AL22" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AM22" t="n">
         <v>16</v>
@@ -4429,7 +4496,7 @@
         <v>25</v>
       </c>
       <c r="AS22" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AT22" t="n">
         <v>6</v>
@@ -4438,10 +4505,10 @@
         <v>21</v>
       </c>
       <c r="AV22" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AW22" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AX22" t="n">
         <v>1</v>
@@ -4450,7 +4517,7 @@
         <v>2</v>
       </c>
       <c r="AZ22" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="BA22" t="n">
         <v>8</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>4-17-2012-13</t>
+          <t>2013-04-17</t>
         </is>
       </c>
     </row>
@@ -4488,16 +4555,16 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E23" t="n">
         <v>20</v>
       </c>
       <c r="F23" t="n">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G23" t="n">
-        <v>0.244</v>
+        <v>0.247</v>
       </c>
       <c r="H23" t="n">
         <v>48.2</v>
@@ -4506,34 +4573,34 @@
         <v>37.7</v>
       </c>
       <c r="J23" t="n">
-        <v>84.2</v>
+        <v>84.3</v>
       </c>
       <c r="K23" t="n">
-        <v>0.448</v>
+        <v>0.447</v>
       </c>
       <c r="L23" t="n">
         <v>6.2</v>
       </c>
       <c r="M23" t="n">
-        <v>18.7</v>
+        <v>18.8</v>
       </c>
       <c r="N23" t="n">
-        <v>0.329</v>
+        <v>0.331</v>
       </c>
       <c r="O23" t="n">
         <v>12.5</v>
       </c>
       <c r="P23" t="n">
-        <v>16.6</v>
+        <v>16.5</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.755</v>
+        <v>0.761</v>
       </c>
       <c r="R23" t="n">
         <v>10.9</v>
       </c>
       <c r="S23" t="n">
-        <v>31.9</v>
+        <v>31.8</v>
       </c>
       <c r="T23" t="n">
         <v>42.7</v>
@@ -4545,7 +4612,7 @@
         <v>14.5</v>
       </c>
       <c r="W23" t="n">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="X23" t="n">
         <v>4.4</v>
@@ -4563,19 +4630,19 @@
         <v>94.09999999999999</v>
       </c>
       <c r="AC23" t="n">
-        <v>-7</v>
+        <v>-6.9</v>
       </c>
       <c r="AD23" t="n">
         <v>1</v>
       </c>
       <c r="AE23" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AF23" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AG23" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AH23" t="n">
         <v>22</v>
@@ -4584,19 +4651,19 @@
         <v>10</v>
       </c>
       <c r="AJ23" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AK23" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AL23" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AM23" t="n">
         <v>18</v>
       </c>
       <c r="AN23" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AO23" t="n">
         <v>29</v>
@@ -4605,7 +4672,7 @@
         <v>30</v>
       </c>
       <c r="AQ23" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AR23" t="n">
         <v>19</v>
@@ -4614,19 +4681,19 @@
         <v>9</v>
       </c>
       <c r="AT23" t="n">
+        <v>11</v>
+      </c>
+      <c r="AU23" t="n">
+        <v>11</v>
+      </c>
+      <c r="AV23" t="n">
         <v>12</v>
-      </c>
-      <c r="AU23" t="n">
-        <v>10</v>
-      </c>
-      <c r="AV23" t="n">
-        <v>11</v>
       </c>
       <c r="AW23" t="n">
         <v>29</v>
       </c>
       <c r="AX23" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AY23" t="n">
         <v>18</v>
@@ -4638,7 +4705,7 @@
         <v>29</v>
       </c>
       <c r="BB23" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="BC23" t="n">
         <v>29</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>4-17-2012-13</t>
+          <t>2013-04-17</t>
         </is>
       </c>
     </row>
@@ -4670,28 +4737,28 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E24" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F24" t="n">
         <v>48</v>
       </c>
       <c r="G24" t="n">
-        <v>0.415</v>
+        <v>0.407</v>
       </c>
       <c r="H24" t="n">
         <v>48.2</v>
       </c>
       <c r="I24" t="n">
-        <v>37.3</v>
+        <v>37.2</v>
       </c>
       <c r="J24" t="n">
         <v>84.09999999999999</v>
       </c>
       <c r="K24" t="n">
-        <v>0.444</v>
+        <v>0.443</v>
       </c>
       <c r="L24" t="n">
         <v>6.3</v>
@@ -4700,10 +4767,10 @@
         <v>17.5</v>
       </c>
       <c r="N24" t="n">
-        <v>0.36</v>
+        <v>0.359</v>
       </c>
       <c r="O24" t="n">
-        <v>12.2</v>
+        <v>12.3</v>
       </c>
       <c r="P24" t="n">
         <v>16.8</v>
@@ -4721,7 +4788,7 @@
         <v>41.3</v>
       </c>
       <c r="U24" t="n">
-        <v>22.8</v>
+        <v>22.9</v>
       </c>
       <c r="V24" t="n">
         <v>13</v>
@@ -4736,16 +4803,16 @@
         <v>4.8</v>
       </c>
       <c r="Z24" t="n">
-        <v>18.4</v>
+        <v>18.3</v>
       </c>
       <c r="AA24" t="n">
-        <v>16.2</v>
+        <v>16.3</v>
       </c>
       <c r="AB24" t="n">
-        <v>93.2</v>
+        <v>93</v>
       </c>
       <c r="AC24" t="n">
-        <v>-3.3</v>
+        <v>-3.5</v>
       </c>
       <c r="AD24" t="n">
         <v>1</v>
@@ -4760,25 +4827,25 @@
         <v>19</v>
       </c>
       <c r="AH24" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AI24" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AJ24" t="n">
         <v>7</v>
       </c>
       <c r="AK24" t="n">
+        <v>23</v>
+      </c>
+      <c r="AL24" t="n">
         <v>22</v>
-      </c>
-      <c r="AL24" t="n">
-        <v>21</v>
       </c>
       <c r="AM24" t="n">
         <v>25</v>
       </c>
       <c r="AN24" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AO24" t="n">
         <v>30</v>
@@ -4793,13 +4860,13 @@
         <v>18</v>
       </c>
       <c r="AS24" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AT24" t="n">
         <v>20</v>
       </c>
       <c r="AU24" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AV24" t="n">
         <v>2</v>
@@ -4811,7 +4878,7 @@
         <v>20</v>
       </c>
       <c r="AY24" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AZ24" t="n">
         <v>5</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>4-17-2012-13</t>
+          <t>2013-04-17</t>
         </is>
       </c>
     </row>
@@ -4852,16 +4919,16 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E25" t="n">
         <v>25</v>
       </c>
       <c r="F25" t="n">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G25" t="n">
-        <v>0.305</v>
+        <v>0.309</v>
       </c>
       <c r="H25" t="n">
         <v>48.3</v>
@@ -4870,40 +4937,40 @@
         <v>37.3</v>
       </c>
       <c r="J25" t="n">
-        <v>84.40000000000001</v>
+        <v>84.09999999999999</v>
       </c>
       <c r="K25" t="n">
         <v>0.443</v>
       </c>
       <c r="L25" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="M25" t="n">
         <v>17.7</v>
       </c>
       <c r="N25" t="n">
-        <v>0.33</v>
+        <v>0.331</v>
       </c>
       <c r="O25" t="n">
         <v>14.7</v>
       </c>
       <c r="P25" t="n">
-        <v>19.7</v>
+        <v>19.8</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.744</v>
+        <v>0.745</v>
       </c>
       <c r="R25" t="n">
-        <v>11.7</v>
+        <v>11.6</v>
       </c>
       <c r="S25" t="n">
-        <v>29.9</v>
+        <v>30</v>
       </c>
       <c r="T25" t="n">
         <v>41.6</v>
       </c>
       <c r="U25" t="n">
-        <v>22.6</v>
+        <v>22.5</v>
       </c>
       <c r="V25" t="n">
         <v>15.6</v>
@@ -4921,13 +4988,13 @@
         <v>20.6</v>
       </c>
       <c r="AA25" t="n">
-        <v>18.4</v>
+        <v>18.5</v>
       </c>
       <c r="AB25" t="n">
-        <v>95.2</v>
+        <v>95.09999999999999</v>
       </c>
       <c r="AC25" t="n">
-        <v>-6.5</v>
+        <v>-6.3</v>
       </c>
       <c r="AD25" t="n">
         <v>1</v>
@@ -4948,10 +5015,10 @@
         <v>13</v>
       </c>
       <c r="AJ25" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AK25" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AL25" t="n">
         <v>26</v>
@@ -4960,7 +5027,7 @@
         <v>23</v>
       </c>
       <c r="AN25" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AO25" t="n">
         <v>27</v>
@@ -4975,7 +5042,7 @@
         <v>12</v>
       </c>
       <c r="AS25" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AT25" t="n">
         <v>18</v>
@@ -4990,7 +5057,7 @@
         <v>15</v>
       </c>
       <c r="AX25" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AY25" t="n">
         <v>17</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>4-17-2012-13</t>
+          <t>2013-04-17</t>
         </is>
       </c>
     </row>
@@ -5034,16 +5101,16 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E26" t="n">
         <v>33</v>
       </c>
       <c r="F26" t="n">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G26" t="n">
-        <v>0.402</v>
+        <v>0.407</v>
       </c>
       <c r="H26" t="n">
         <v>48.4</v>
@@ -5061,16 +5128,16 @@
         <v>8.199999999999999</v>
       </c>
       <c r="M26" t="n">
-        <v>23.2</v>
+        <v>23.4</v>
       </c>
       <c r="N26" t="n">
         <v>0.353</v>
       </c>
       <c r="O26" t="n">
-        <v>15.9</v>
+        <v>16</v>
       </c>
       <c r="P26" t="n">
-        <v>20.5</v>
+        <v>20.6</v>
       </c>
       <c r="Q26" t="n">
         <v>0.776</v>
@@ -5079,7 +5146,7 @@
         <v>10.7</v>
       </c>
       <c r="S26" t="n">
-        <v>30.2</v>
+        <v>30.1</v>
       </c>
       <c r="T26" t="n">
         <v>40.8</v>
@@ -5100,28 +5167,28 @@
         <v>4.4</v>
       </c>
       <c r="Z26" t="n">
-        <v>18.5</v>
+        <v>18.6</v>
       </c>
       <c r="AA26" t="n">
-        <v>18.7</v>
+        <v>18.8</v>
       </c>
       <c r="AB26" t="n">
-        <v>97.5</v>
+        <v>97.59999999999999</v>
       </c>
       <c r="AC26" t="n">
-        <v>-3.2</v>
+        <v>-3.1</v>
       </c>
       <c r="AD26" t="n">
         <v>1</v>
       </c>
       <c r="AE26" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AF26" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AG26" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AH26" t="n">
         <v>8</v>
@@ -5145,13 +5212,13 @@
         <v>20</v>
       </c>
       <c r="AO26" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AP26" t="n">
         <v>24</v>
       </c>
       <c r="AQ26" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AR26" t="n">
         <v>23</v>
@@ -5160,13 +5227,13 @@
         <v>18</v>
       </c>
       <c r="AT26" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AU26" t="n">
         <v>18</v>
       </c>
       <c r="AV26" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AW26" t="n">
         <v>28</v>
@@ -5175,7 +5242,7 @@
         <v>26</v>
       </c>
       <c r="AY26" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AZ26" t="n">
         <v>7</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>4-17-2012-13</t>
+          <t>2013-04-17</t>
         </is>
       </c>
     </row>
@@ -5216,16 +5283,16 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E27" t="n">
         <v>28</v>
       </c>
       <c r="F27" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G27" t="n">
-        <v>0.341</v>
+        <v>0.346</v>
       </c>
       <c r="H27" t="n">
         <v>48.4</v>
@@ -5234,7 +5301,7 @@
         <v>37.6</v>
       </c>
       <c r="J27" t="n">
-        <v>84.2</v>
+        <v>84.09999999999999</v>
       </c>
       <c r="K27" t="n">
         <v>0.447</v>
@@ -5243,7 +5310,7 @@
         <v>7.4</v>
       </c>
       <c r="M27" t="n">
-        <v>20.5</v>
+        <v>20.4</v>
       </c>
       <c r="N27" t="n">
         <v>0.363</v>
@@ -5261,16 +5328,16 @@
         <v>11.5</v>
       </c>
       <c r="S27" t="n">
-        <v>29.1</v>
+        <v>29</v>
       </c>
       <c r="T27" t="n">
-        <v>40.6</v>
+        <v>40.5</v>
       </c>
       <c r="U27" t="n">
         <v>20.8</v>
       </c>
       <c r="V27" t="n">
-        <v>14.6</v>
+        <v>14.7</v>
       </c>
       <c r="W27" t="n">
         <v>8.199999999999999</v>
@@ -5282,13 +5349,13 @@
         <v>6.3</v>
       </c>
       <c r="Z27" t="n">
-        <v>20.9</v>
+        <v>21</v>
       </c>
       <c r="AA27" t="n">
         <v>20</v>
       </c>
       <c r="AB27" t="n">
-        <v>100.2</v>
+        <v>100.1</v>
       </c>
       <c r="AC27" t="n">
         <v>-4.9</v>
@@ -5309,10 +5376,10 @@
         <v>13</v>
       </c>
       <c r="AI27" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AJ27" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AK27" t="n">
         <v>19</v>
@@ -5324,13 +5391,13 @@
         <v>10</v>
       </c>
       <c r="AN27" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AO27" t="n">
         <v>10</v>
       </c>
       <c r="AP27" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AQ27" t="n">
         <v>11</v>
@@ -5348,10 +5415,10 @@
         <v>25</v>
       </c>
       <c r="AV27" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AW27" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AX27" t="n">
         <v>28</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>4-17-2012-13</t>
+          <t>2013-04-17</t>
         </is>
       </c>
     </row>
@@ -5398,34 +5465,34 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E28" t="n">
         <v>58</v>
       </c>
       <c r="F28" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G28" t="n">
-        <v>0.707</v>
+        <v>0.716</v>
       </c>
       <c r="H28" t="n">
         <v>48.5</v>
       </c>
       <c r="I28" t="n">
-        <v>39.1</v>
+        <v>39.2</v>
       </c>
       <c r="J28" t="n">
         <v>81.40000000000001</v>
       </c>
       <c r="K28" t="n">
-        <v>0.481</v>
+        <v>0.482</v>
       </c>
       <c r="L28" t="n">
         <v>8.1</v>
       </c>
       <c r="M28" t="n">
-        <v>21.5</v>
+        <v>21.6</v>
       </c>
       <c r="N28" t="n">
         <v>0.376</v>
@@ -5437,19 +5504,19 @@
         <v>21</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.791</v>
+        <v>0.789</v>
       </c>
       <c r="R28" t="n">
-        <v>8.1</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="S28" t="n">
-        <v>33.2</v>
+        <v>33.1</v>
       </c>
       <c r="T28" t="n">
         <v>41.3</v>
       </c>
       <c r="U28" t="n">
-        <v>25.1</v>
+        <v>25.2</v>
       </c>
       <c r="V28" t="n">
         <v>14.7</v>
@@ -5458,22 +5525,22 @@
         <v>8.5</v>
       </c>
       <c r="X28" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="Y28" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="Z28" t="n">
-        <v>17.4</v>
+        <v>17.3</v>
       </c>
       <c r="AA28" t="n">
         <v>19.1</v>
       </c>
       <c r="AB28" t="n">
-        <v>103</v>
+        <v>103.1</v>
       </c>
       <c r="AC28" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="AD28" t="n">
         <v>1</v>
@@ -5494,7 +5561,7 @@
         <v>2</v>
       </c>
       <c r="AJ28" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AK28" t="n">
         <v>2</v>
@@ -5506,16 +5573,16 @@
         <v>7</v>
       </c>
       <c r="AN28" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AO28" t="n">
         <v>15</v>
       </c>
       <c r="AP28" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AQ28" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AR28" t="n">
         <v>29</v>
@@ -5524,16 +5591,16 @@
         <v>4</v>
       </c>
       <c r="AT28" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AU28" t="n">
         <v>1</v>
       </c>
       <c r="AV28" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AW28" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AX28" t="n">
         <v>9</v>
@@ -5545,13 +5612,13 @@
         <v>1</v>
       </c>
       <c r="BA28" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="BB28" t="n">
         <v>4</v>
       </c>
       <c r="BC28" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BD28" t="n">
         <v>10</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>4-17-2012-13</t>
+          <t>2013-04-17</t>
         </is>
       </c>
     </row>
@@ -5580,16 +5647,16 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E29" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F29" t="n">
         <v>48</v>
       </c>
       <c r="G29" t="n">
-        <v>0.415</v>
+        <v>0.407</v>
       </c>
       <c r="H29" t="n">
         <v>48.7</v>
@@ -5601,19 +5668,19 @@
         <v>81.5</v>
       </c>
       <c r="K29" t="n">
-        <v>0.446</v>
+        <v>0.445</v>
       </c>
       <c r="L29" t="n">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="M29" t="n">
         <v>20.3</v>
       </c>
       <c r="N29" t="n">
-        <v>0.343</v>
+        <v>0.34</v>
       </c>
       <c r="O29" t="n">
-        <v>17.6</v>
+        <v>17.5</v>
       </c>
       <c r="P29" t="n">
         <v>22.3</v>
@@ -5625,10 +5692,10 @@
         <v>10.6</v>
       </c>
       <c r="S29" t="n">
-        <v>29.6</v>
+        <v>29.5</v>
       </c>
       <c r="T29" t="n">
-        <v>40.2</v>
+        <v>40.1</v>
       </c>
       <c r="U29" t="n">
         <v>21.5</v>
@@ -5643,19 +5710,19 @@
         <v>4.8</v>
       </c>
       <c r="Y29" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="Z29" t="n">
-        <v>22.4</v>
+        <v>22.5</v>
       </c>
       <c r="AA29" t="n">
         <v>20.1</v>
       </c>
       <c r="AB29" t="n">
-        <v>97.2</v>
+        <v>97</v>
       </c>
       <c r="AC29" t="n">
-        <v>-1.5</v>
+        <v>-1.8</v>
       </c>
       <c r="AD29" t="n">
         <v>1</v>
@@ -5673,10 +5740,10 @@
         <v>2</v>
       </c>
       <c r="AI29" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AJ29" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AK29" t="n">
         <v>20</v>
@@ -5685,16 +5752,16 @@
         <v>15</v>
       </c>
       <c r="AM29" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AN29" t="n">
         <v>26</v>
       </c>
       <c r="AO29" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AP29" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AQ29" t="n">
         <v>5</v>
@@ -5703,7 +5770,7 @@
         <v>24</v>
       </c>
       <c r="AS29" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AT29" t="n">
         <v>28</v>
@@ -5715,10 +5782,10 @@
         <v>3</v>
       </c>
       <c r="AW29" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AX29" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AY29" t="n">
         <v>11</v>
@@ -5733,7 +5800,7 @@
         <v>16</v>
       </c>
       <c r="BC29" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="BD29" t="n">
         <v>10</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>4-17-2012-13</t>
+          <t>2013-04-17</t>
         </is>
       </c>
     </row>
@@ -5762,49 +5829,49 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E30" t="n">
         <v>43</v>
       </c>
       <c r="F30" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G30" t="n">
-        <v>0.524</v>
+        <v>0.531</v>
       </c>
       <c r="H30" t="n">
         <v>48.5</v>
       </c>
       <c r="I30" t="n">
-        <v>37.1</v>
+        <v>37.3</v>
       </c>
       <c r="J30" t="n">
-        <v>81.8</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="K30" t="n">
-        <v>0.454</v>
+        <v>0.456</v>
       </c>
       <c r="L30" t="n">
         <v>6.2</v>
       </c>
       <c r="M30" t="n">
-        <v>16.9</v>
+        <v>17</v>
       </c>
       <c r="N30" t="n">
-        <v>0.366</v>
+        <v>0.367</v>
       </c>
       <c r="O30" t="n">
-        <v>17.5</v>
+        <v>17.6</v>
       </c>
       <c r="P30" t="n">
-        <v>23</v>
+        <v>22.9</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.764</v>
+        <v>0.766</v>
       </c>
       <c r="R30" t="n">
-        <v>12.1</v>
+        <v>12</v>
       </c>
       <c r="S30" t="n">
         <v>30</v>
@@ -5813,7 +5880,7 @@
         <v>42</v>
       </c>
       <c r="U30" t="n">
-        <v>22.7</v>
+        <v>22.8</v>
       </c>
       <c r="V30" t="n">
         <v>14.8</v>
@@ -5825,19 +5892,19 @@
         <v>6.3</v>
       </c>
       <c r="Y30" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="Z30" t="n">
-        <v>21.3</v>
+        <v>21.4</v>
       </c>
       <c r="AA30" t="n">
-        <v>20.4</v>
+        <v>20.3</v>
       </c>
       <c r="AB30" t="n">
-        <v>98</v>
+        <v>98.40000000000001</v>
       </c>
       <c r="AC30" t="n">
-        <v>-0.1</v>
+        <v>0.1</v>
       </c>
       <c r="AD30" t="n">
         <v>1</v>
@@ -5855,7 +5922,7 @@
         <v>5</v>
       </c>
       <c r="AI30" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AJ30" t="n">
         <v>12</v>
@@ -5870,10 +5937,10 @@
         <v>28</v>
       </c>
       <c r="AN30" t="n">
+        <v>9</v>
+      </c>
+      <c r="AO30" t="n">
         <v>8</v>
-      </c>
-      <c r="AO30" t="n">
-        <v>9</v>
       </c>
       <c r="AP30" t="n">
         <v>11</v>
@@ -5888,7 +5955,7 @@
         <v>22</v>
       </c>
       <c r="AT30" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AU30" t="n">
         <v>13</v>
@@ -5903,7 +5970,7 @@
         <v>5</v>
       </c>
       <c r="AY30" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AZ30" t="n">
         <v>28</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>4-17-2012-13</t>
+          <t>2013-04-17</t>
         </is>
       </c>
     </row>
@@ -5944,16 +6011,16 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E31" t="n">
         <v>29</v>
       </c>
       <c r="F31" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G31" t="n">
-        <v>0.354</v>
+        <v>0.358</v>
       </c>
       <c r="H31" t="n">
         <v>48.4</v>
@@ -5971,10 +6038,10 @@
         <v>6.6</v>
       </c>
       <c r="M31" t="n">
-        <v>18.2</v>
+        <v>18.3</v>
       </c>
       <c r="N31" t="n">
-        <v>0.365</v>
+        <v>0.364</v>
       </c>
       <c r="O31" t="n">
         <v>15.6</v>
@@ -5983,22 +6050,22 @@
         <v>21.3</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.733</v>
+        <v>0.732</v>
       </c>
       <c r="R31" t="n">
-        <v>10.8</v>
+        <v>10.9</v>
       </c>
       <c r="S31" t="n">
-        <v>32.3</v>
+        <v>32.4</v>
       </c>
       <c r="T31" t="n">
         <v>43.2</v>
       </c>
       <c r="U31" t="n">
-        <v>21.6</v>
+        <v>21.7</v>
       </c>
       <c r="V31" t="n">
-        <v>15.1</v>
+        <v>15.2</v>
       </c>
       <c r="W31" t="n">
         <v>7.3</v>
@@ -6058,28 +6125,28 @@
         <v>24</v>
       </c>
       <c r="AP31" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AQ31" t="n">
         <v>23</v>
       </c>
       <c r="AR31" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AS31" t="n">
         <v>7</v>
       </c>
       <c r="AT31" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AU31" t="n">
         <v>19</v>
       </c>
       <c r="AV31" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AW31" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AX31" t="n">
         <v>21</v>
@@ -6091,13 +6158,13 @@
         <v>20</v>
       </c>
       <c r="BA31" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="BB31" t="n">
         <v>28</v>
       </c>
       <c r="BC31" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="BD31" t="n">
         <v>10</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>4-17-2012-13</t>
+          <t>2013-04-17</t>
         </is>
       </c>
     </row>
